--- a/StructureDefinition-ext-R5-OperationOutcome.issue.xlsx
+++ b/StructureDefinition-ext-R5-OperationOutcome.issue.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -416,7 +416,7 @@
     <t>How the issue affects the success of the action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-issue-severity-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-issue-severity-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -464,7 +464,7 @@
     <t>A code that describes the type of issue.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-issue-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-issue-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:details</t>
@@ -966,7 +966,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="38.7421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.7578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
